--- a/tests/test_xls/sheet_txns_pivot/test_columns/test_columns_txntype/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns_pivot/test_columns/test_columns_txntype/expected_result.xlsx
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B4" s="8" t="n">
-        <v>-201701.35</v>
+        <v>-181022.72</v>
       </c>
       <c r="C4" s="8" t="inlineStr"/>
       <c r="D4" s="8" t="inlineStr"/>
       <c r="E4" s="8" t="inlineStr"/>
       <c r="F4" s="8" t="n">
-        <v>-201701.35</v>
+        <v>-181022.72</v>
       </c>
     </row>
     <row r="5">
@@ -569,11 +569,11 @@
       <c r="B5" s="8" t="inlineStr"/>
       <c r="C5" s="8" t="inlineStr"/>
       <c r="D5" s="8" t="n">
-        <v>397885.47</v>
+        <v>338613.39</v>
       </c>
       <c r="E5" s="8" t="inlineStr"/>
       <c r="F5" s="8" t="n">
-        <v>397885.47</v>
+        <v>338613.39</v>
       </c>
     </row>
     <row r="6">
@@ -584,12 +584,12 @@
       </c>
       <c r="B6" s="8" t="inlineStr"/>
       <c r="C6" s="8" t="n">
-        <v>-176696.98</v>
+        <v>-179006</v>
       </c>
       <c r="D6" s="8" t="inlineStr"/>
       <c r="E6" s="8" t="inlineStr"/>
       <c r="F6" s="8" t="n">
-        <v>-176696.98</v>
+        <v>-179006</v>
       </c>
     </row>
     <row r="7">
@@ -601,11 +601,11 @@
       <c r="B7" s="8" t="inlineStr"/>
       <c r="C7" s="8" t="inlineStr"/>
       <c r="D7" s="8" t="n">
-        <v>2261009.38</v>
+        <v>2254401.67</v>
       </c>
       <c r="E7" s="8" t="inlineStr"/>
       <c r="F7" s="8" t="n">
-        <v>2261009.38</v>
+        <v>2254401.67</v>
       </c>
     </row>
     <row r="8">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="B8" s="8" t="n">
-        <v>-88086.52</v>
+        <v>-80719.32000000001</v>
       </c>
       <c r="C8" s="8" t="inlineStr"/>
       <c r="D8" s="8" t="inlineStr"/>
       <c r="E8" s="8" t="inlineStr"/>
       <c r="F8" s="8" t="n">
-        <v>-88086.52</v>
+        <v>-80719.32000000001</v>
       </c>
     </row>
     <row r="9">
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="B9" s="8" t="n">
-        <v>-185466.77</v>
+        <v>-190509.04</v>
       </c>
       <c r="C9" s="8" t="inlineStr"/>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="n">
-        <v>-185466.77</v>
+        <v>-190509.04</v>
       </c>
     </row>
     <row r="10">
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="B10" s="8" t="n">
-        <v>-72695.45</v>
+        <v>-80232.52</v>
       </c>
       <c r="C10" s="8" t="inlineStr"/>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="n">
-        <v>-72695.45</v>
+        <v>-80232.52</v>
       </c>
     </row>
     <row r="11">
@@ -663,13 +663,13 @@
         </is>
       </c>
       <c r="B11" s="8" t="n">
-        <v>-246784.22</v>
+        <v>-279746.85</v>
       </c>
       <c r="C11" s="8" t="inlineStr"/>
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="n">
-        <v>-246784.22</v>
+        <v>-279746.85</v>
       </c>
     </row>
     <row r="12">
@@ -679,13 +679,13 @@
         </is>
       </c>
       <c r="B12" s="8" t="n">
-        <v>-136221.54</v>
+        <v>-141099.22</v>
       </c>
       <c r="C12" s="8" t="inlineStr"/>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="n">
-        <v>-136221.54</v>
+        <v>-141099.22</v>
       </c>
     </row>
     <row r="13">
@@ -698,10 +698,10 @@
       <c r="C13" s="8" t="inlineStr"/>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="n">
-        <v>969257.8100000001</v>
+        <v>965763.85</v>
       </c>
       <c r="F13" s="8" t="n">
-        <v>969257.8100000001</v>
+        <v>965763.85</v>
       </c>
     </row>
     <row r="14">
@@ -714,10 +714,10 @@
       <c r="C14" s="8" t="inlineStr"/>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="n">
-        <v>-969257.8100000001</v>
+        <v>-965763.85</v>
       </c>
       <c r="F14" s="8" t="n">
-        <v>-969257.8100000001</v>
+        <v>-965763.85</v>
       </c>
     </row>
     <row r="15">
@@ -728,12 +728,12 @@
       </c>
       <c r="B15" s="8" t="inlineStr"/>
       <c r="C15" s="8" t="n">
-        <v>-79360.62</v>
+        <v>-83002.44</v>
       </c>
       <c r="D15" s="8" t="inlineStr"/>
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="n">
-        <v>-79360.62</v>
+        <v>-83002.44</v>
       </c>
     </row>
     <row r="16">
@@ -745,11 +745,11 @@
       <c r="B16" s="8" t="inlineStr"/>
       <c r="C16" s="8" t="inlineStr"/>
       <c r="D16" s="8" t="n">
-        <v>465530.73</v>
+        <v>413324.54</v>
       </c>
       <c r="E16" s="8" t="inlineStr"/>
       <c r="F16" s="8" t="n">
-        <v>465530.73</v>
+        <v>413324.54</v>
       </c>
     </row>
     <row r="17">
@@ -759,19 +759,19 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>-930955.85</v>
+        <v>-953329.67</v>
       </c>
       <c r="C17" s="9" t="n">
-        <v>-256057.6</v>
+        <v>-262008.44</v>
       </c>
       <c r="D17" s="9" t="n">
-        <v>3124425.58</v>
+        <v>3006339.6</v>
       </c>
       <c r="E17" s="9" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="9" t="n">
-        <v>1937412.13</v>
+        <v>1791001.49</v>
       </c>
     </row>
   </sheetData>
